--- a/biology/Botanique/Albizia/Albizia.xlsx
+++ b/biology/Botanique/Albizia/Albizia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albizia est un genre botanique d'environ 150 espèces de petits arbres et arbustes tropicaux ou subtropicaux à croissance rapide.
 Il appartient à la famille des Mimosaceae selon classification classique, ou à celle des Fabaceae, sous-famille des Mimosoideae selon la classification phylogénétique. Le genre, souvent orthographié à tort « Albizzia », doit pourtant son nom à Filippo del Albizzi, un italien qui l'introduisit en Europe au milieu du XVIIIe siècle.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles, finement découpées, sont composés de petites folioles qui se replient sur elles-mêmes lorsque la plante manque de lumière. 
 Les fleurs, petites et en pompon, exhibent des étamines souvent spectaculaires et plus long que les pétales. Certaines espèces sont considérées comme envahissantes.
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En zone tempérée, les variétés « Cyrano » et « Roxane » sont les plus résistantes au gel, jusqu'à −10 °C, à condition de leur offrir un endroit bien ensoleillé et abrité des vents froids. 
 L'albizia apprécie les terres plutôt pauvres et sableuses, et accepte le calcaire et la présence de sel dans les sols, ce qui est intéressant en bord de mer.
@@ -579,12 +595,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les Albizia servent de nourriture aux larves de certains papillons du genre Endoclita incluant Endoclita damor, Endoclita malabaricus et Endoclita sericeus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Albizia servent de nourriture aux larves de certains papillons du genre Endoclita incluant Endoclita damor, Endoclita malabaricus et Endoclita sericeus.
 Une espèce, l'arbre de soie, Albizia julibrissin, s'étend assez largement au nord dans les régions tempérées. C'est de loin l'espèce la plus rustique du genre (jusqu'à −30 °C si l'été est assez chaud pour faire pousser l'arbre). En Amérique du Nord, où on le cultive beaucoup comme arbre d'ornement, on le confond souvent avec les espèces de Mimosa. Dans de nombreux états américains, Albizia julibrissin s'est très bien acclimaté et est désormais considéré comme une espèce invasive.
-Espèces déplacées vers d'autres genres
-Pour Albizia moluccana Mig., voir Falcataria moluccana  (Miq.) Barneby &amp; J.W.Grimes. Cette espèce est souvent plantée en arbre d'ombrage dans les plantations de théiers.</t>
+</t>
         </is>
       </c>
     </row>
@@ -609,13 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ennemis</t>
+          <t>Utilisation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un psylle (le Psylle de l'Albizia : Acizzia jamatonica), insecte ravageur originaire d'Asie, mesurant 2 mm de long, envahit les feuilles, les fleurs et les gousses, se nourrissant de la sève. Il excrète un liquide qui goutte, rendant collants les fleurs et le sol sous l'arbre et favorisant un champignon noir, la fumagine, à l'aspect de suie.
-</t>
+          <t>Espèces déplacées vers d'autres genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pour Albizia moluccana Mig., voir Falcataria moluccana  (Miq.) Barneby &amp; J.W.Grimes. Cette espèce est souvent plantée en arbre d'ombrage dans les plantations de théiers.</t>
         </is>
       </c>
     </row>
@@ -640,10 +662,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Ennemis</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un psylle (le Psylle de l'Albizia : Acizzia jamatonica), insecte ravageur originaire d'Asie, mesurant 2 mm de long, envahit les feuilles, les fleurs et les gousses, se nourrissant de la sève. Il excrète un liquide qui goutte, rendant collants les fleurs et le sol sous l'arbre et favorisant un champignon noir, la fumagine, à l'aspect de suie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Albizia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Albizzia Benth.
 Arthrosamanea Britton &amp; Rose
@@ -656,31 +713,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Albizia</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Albizia</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Albizia acle (syn. Mimosa acle) - Acle, Akle
@@ -909,7 +968,7 @@
 Albizia westerhuisii
 Albizia yunnanensis
 Albizia zimmermannii
-Selon The Plant List            (22 avril 2019)[3] :
+Selon The Plant List            (22 avril 2019) :
 Albizia acle (Blanco) Merr.
 Albizia adianthifolia (Schum.) W.Wight
 Albizia adinocephala (Donn.Sm.) Record
@@ -1047,7 +1106,7 @@
 Albizia xerophytica J. Linares
 Albizia zimmermannii Harms
 Albizia zygia (DC.) J.F.Macbr.
-Selon Tropicos                                           (22 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Albizia acle (Blanco) Merr.
 Albizia acrodena Miq.
 Albizia adianthifolia (Schumach.) W. Wight
